--- a/biology/Histoire de la zoologie et de la botanique/Henry_Nicholas_Bolander/Henry_Nicholas_Bolander.xlsx
+++ b/biology/Histoire de la zoologie et de la botanique/Henry_Nicholas_Bolander/Henry_Nicholas_Bolander.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Henry Nicholas Bolander, né en 1831 à Schlüchtern (Électorat de Hesse) et mort en 1897 à Portland, en Oregon (États-Unis), est un botaniste américain d’origine allemande.
 </t>
@@ -511,7 +523,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Il émigre à 15 ans aux États-Unis. Écoutant les encouragements d’un oncle, il entreprend des études religieuses au séminaire de Columbus (Ohio), et est ordonné prêtre de l’église luthérienne. Mais il ne reçoit pas de ministère. En 1851, il enseigne l’allemand et commence à étudier la botanique grâce à l’influence d’un voisin, Charles Léo Lesquereux (1806-1889).
 Sa santé s’altérant, son médecin lui recommande de s’installer en Californie, ce qu'il fait en 1861. Bolander travaille alors pour le Service de Géologie de Californie (en) où il succède à William Henry Brewer (1828-1910) comme botaniste d’État de la Californie. Il devient un spécialiste des herbacées. En 1871, il abandonne la botanique pour retourner à la pédagogie. Il est alors élu Superintendant de l'éducation publique de Californie (en), une fonction qu’il occupe jusqu’en décembre 1875.
